--- a/Payments_Refunds/outputs/refund_recon_20251216_141501/refund_reconciliation_detailed.xlsx
+++ b/Payments_Refunds/outputs/refund_recon_20251216_141501/refund_reconciliation_detailed.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Payments Reconciliation\Payments_Refunds\outputs\refund_recon_20251216_141501\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$543</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -3331,11 +3339,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3399,6 +3407,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3445,7 +3461,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3477,9 +3493,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3511,6 +3528,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3686,14 +3704,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P543"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="14" max="14" width="29.7109375" customWidth="1"/>
+    <col min="15" max="15" width="41.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3743,12 +3775,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2">
-        <v>38775.3</v>
+        <v>38775.300000000003</v>
       </c>
       <c r="C2" s="2">
         <v>45379</v>
@@ -3757,7 +3789,7 @@
         <v>558</v>
       </c>
       <c r="E2">
-        <v>38775.3</v>
+        <v>38775.300000000003</v>
       </c>
       <c r="F2" s="2">
         <v>45378</v>
@@ -3793,12 +3825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3">
-        <v>17564.69</v>
+        <v>17564.689999999999</v>
       </c>
       <c r="C3" s="2">
         <v>45306</v>
@@ -3807,7 +3839,7 @@
         <v>559</v>
       </c>
       <c r="E3">
-        <v>17564.69</v>
+        <v>17564.689999999999</v>
       </c>
       <c r="F3" s="2">
         <v>45305</v>
@@ -3843,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3893,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3943,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -3993,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -4043,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -4093,12 +4125,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9">
-        <v>32812.12</v>
+        <v>32812.120000000003</v>
       </c>
       <c r="C9" s="2">
         <v>45356</v>
@@ -4107,7 +4139,7 @@
         <v>565</v>
       </c>
       <c r="E9">
-        <v>32812.12</v>
+        <v>32812.120000000003</v>
       </c>
       <c r="F9" s="2">
         <v>45355</v>
@@ -4143,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -4193,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -4243,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -4293,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -4343,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -4393,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -4443,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -4493,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -4543,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -4593,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -4643,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -4693,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -4743,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -4793,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -4843,12 +4875,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
       <c r="B24">
-        <v>30379.04</v>
+        <v>30379.040000000001</v>
       </c>
       <c r="C24" s="2">
         <v>45310</v>
@@ -4857,7 +4889,7 @@
         <v>580</v>
       </c>
       <c r="E24">
-        <v>30379.04</v>
+        <v>30379.040000000001</v>
       </c>
       <c r="F24" s="2">
         <v>45309</v>
@@ -4893,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -4943,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -4993,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -5043,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -5093,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -5143,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -5193,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -5243,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -5293,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -5343,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -5393,7 +5425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -5443,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -5493,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -5543,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -5593,7 +5625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -5643,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -5693,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -5743,12 +5775,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
       <c r="B42">
-        <v>38807.02</v>
+        <v>38807.019999999997</v>
       </c>
       <c r="C42" s="2">
         <v>45331</v>
@@ -5757,7 +5789,7 @@
         <v>598</v>
       </c>
       <c r="E42">
-        <v>38807.02</v>
+        <v>38807.019999999997</v>
       </c>
       <c r="F42" s="2">
         <v>45330</v>
@@ -5793,12 +5825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
       <c r="B43">
-        <v>34767.09</v>
+        <v>34767.089999999997</v>
       </c>
       <c r="C43" s="2">
         <v>45347</v>
@@ -5807,7 +5839,7 @@
         <v>599</v>
       </c>
       <c r="E43">
-        <v>34767.09</v>
+        <v>34767.089999999997</v>
       </c>
       <c r="F43" s="2">
         <v>45346</v>
@@ -5843,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -5893,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -5943,7 +5975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -5993,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -6043,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -6093,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -6143,12 +6175,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
       <c r="B50">
-        <v>36463.62</v>
+        <v>36463.620000000003</v>
       </c>
       <c r="C50" s="2">
         <v>45356</v>
@@ -6157,7 +6189,7 @@
         <v>606</v>
       </c>
       <c r="E50">
-        <v>36463.62</v>
+        <v>36463.620000000003</v>
       </c>
       <c r="F50" s="2">
         <v>45355</v>
@@ -6193,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -6243,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -6293,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -6343,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -6393,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -6443,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -6493,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -6543,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -6593,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -6643,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -6693,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -6743,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -6793,12 +6825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>77</v>
       </c>
       <c r="B63">
-        <v>23497.2</v>
+        <v>23497.200000000001</v>
       </c>
       <c r="C63" s="2">
         <v>45372</v>
@@ -6807,7 +6839,7 @@
         <v>619</v>
       </c>
       <c r="E63">
-        <v>23497.2</v>
+        <v>23497.200000000001</v>
       </c>
       <c r="F63" s="2">
         <v>45371</v>
@@ -6843,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -6893,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -6943,7 +6975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -6993,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -7043,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -7093,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -7143,12 +7175,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>84</v>
       </c>
       <c r="B70">
-        <v>32872.3</v>
+        <v>32872.300000000003</v>
       </c>
       <c r="C70" s="2">
         <v>45340</v>
@@ -7157,7 +7189,7 @@
         <v>626</v>
       </c>
       <c r="E70">
-        <v>32872.3</v>
+        <v>32872.300000000003</v>
       </c>
       <c r="F70" s="2">
         <v>45338</v>
@@ -7193,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -7243,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -7293,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -7343,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -7393,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>89</v>
       </c>
@@ -7443,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -7493,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -7543,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -7593,7 +7625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -7643,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -7693,12 +7725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>95</v>
       </c>
       <c r="B81">
-        <v>36926.52</v>
+        <v>36926.519999999997</v>
       </c>
       <c r="C81" s="2">
         <v>45381</v>
@@ -7707,7 +7739,7 @@
         <v>637</v>
       </c>
       <c r="E81">
-        <v>36926.52</v>
+        <v>36926.519999999997</v>
       </c>
       <c r="F81" s="2">
         <v>45379</v>
@@ -7743,7 +7775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -7793,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -7843,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -7893,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>99</v>
       </c>
@@ -7943,7 +7975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -7993,12 +8025,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>101</v>
       </c>
       <c r="B87">
-        <v>4536.11</v>
+        <v>4536.1099999999997</v>
       </c>
       <c r="C87" s="2">
         <v>45295</v>
@@ -8007,7 +8039,7 @@
         <v>643</v>
       </c>
       <c r="E87">
-        <v>4536.11</v>
+        <v>4536.1099999999997</v>
       </c>
       <c r="F87" s="2">
         <v>45293</v>
@@ -8043,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -8093,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -8143,12 +8175,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>104</v>
       </c>
       <c r="B90">
-        <v>46808.48</v>
+        <v>46808.480000000003</v>
       </c>
       <c r="C90" s="2">
         <v>45326</v>
@@ -8157,7 +8189,7 @@
         <v>646</v>
       </c>
       <c r="E90">
-        <v>46808.48</v>
+        <v>46808.480000000003</v>
       </c>
       <c r="F90" s="2">
         <v>45324</v>
@@ -8193,12 +8225,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>105</v>
       </c>
       <c r="B91">
-        <v>33668.96</v>
+        <v>33668.959999999999</v>
       </c>
       <c r="C91" s="2">
         <v>45348</v>
@@ -8207,7 +8239,7 @@
         <v>647</v>
       </c>
       <c r="E91">
-        <v>33668.96</v>
+        <v>33668.959999999999</v>
       </c>
       <c r="F91" s="2">
         <v>45346</v>
@@ -8243,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -8293,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -8343,7 +8375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -8393,12 +8425,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>109</v>
       </c>
       <c r="B95">
-        <v>35195.02</v>
+        <v>35195.019999999997</v>
       </c>
       <c r="C95" s="2">
         <v>45321</v>
@@ -8407,7 +8439,7 @@
         <v>651</v>
       </c>
       <c r="E95">
-        <v>35195.02</v>
+        <v>35195.019999999997</v>
       </c>
       <c r="F95" s="2">
         <v>45319</v>
@@ -8443,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -8493,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -8543,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -8593,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -8643,7 +8675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -8693,7 +8725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -8743,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -8793,12 +8825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>117</v>
       </c>
       <c r="B103">
-        <v>18774.94</v>
+        <v>18774.939999999999</v>
       </c>
       <c r="C103" s="2">
         <v>45303</v>
@@ -8807,7 +8839,7 @@
         <v>659</v>
       </c>
       <c r="E103">
-        <v>18774.94</v>
+        <v>18774.939999999999</v>
       </c>
       <c r="F103" s="2">
         <v>45301</v>
@@ -8843,7 +8875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -8893,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -8943,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -8993,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -9043,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -9093,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -9143,12 +9175,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>124</v>
       </c>
       <c r="B110">
-        <v>4898.6</v>
+        <v>4898.6000000000004</v>
       </c>
       <c r="C110" s="2">
         <v>45383</v>
@@ -9157,7 +9189,7 @@
         <v>666</v>
       </c>
       <c r="E110">
-        <v>4898.6</v>
+        <v>4898.6000000000004</v>
       </c>
       <c r="F110" s="2">
         <v>45381</v>
@@ -9193,7 +9225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -9243,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -9293,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -9343,7 +9375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -9393,7 +9425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -9443,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -9493,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -9543,7 +9575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -9593,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -9643,7 +9675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -9693,7 +9725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -9743,7 +9775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -9793,12 +9825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>137</v>
       </c>
       <c r="B123">
-        <v>19144.42</v>
+        <v>19144.419999999998</v>
       </c>
       <c r="C123" s="2">
         <v>45323</v>
@@ -9807,7 +9839,7 @@
         <v>679</v>
       </c>
       <c r="E123">
-        <v>19144.42</v>
+        <v>19144.419999999998</v>
       </c>
       <c r="F123" s="2">
         <v>45320</v>
@@ -9843,7 +9875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -9893,7 +9925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -9943,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -9993,12 +10025,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>141</v>
       </c>
       <c r="B127">
-        <v>9785.219999999999</v>
+        <v>9785.2199999999993</v>
       </c>
       <c r="C127" s="2">
         <v>45382</v>
@@ -10007,7 +10039,7 @@
         <v>683</v>
       </c>
       <c r="E127">
-        <v>9785.219999999999</v>
+        <v>9785.2199999999993</v>
       </c>
       <c r="F127" s="2">
         <v>45379</v>
@@ -10043,7 +10075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -10093,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -10143,7 +10175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -10193,7 +10225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -10243,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -10293,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -10343,7 +10375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -10393,7 +10425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -10443,7 +10475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -10493,7 +10525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -10543,7 +10575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -10593,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -10643,7 +10675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -10693,7 +10725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -10743,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -10793,12 +10825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>157</v>
       </c>
       <c r="B143">
-        <v>18744.9</v>
+        <v>18744.900000000001</v>
       </c>
       <c r="C143" s="2">
         <v>45304</v>
@@ -10807,7 +10839,7 @@
         <v>699</v>
       </c>
       <c r="E143">
-        <v>18744.9</v>
+        <v>18744.900000000001</v>
       </c>
       <c r="F143" s="2">
         <v>45301</v>
@@ -10843,7 +10875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -10893,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -10943,12 +10975,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>160</v>
       </c>
       <c r="B146">
-        <v>31078.24</v>
+        <v>31078.240000000002</v>
       </c>
       <c r="C146" s="2">
         <v>45357</v>
@@ -10957,7 +10989,7 @@
         <v>702</v>
       </c>
       <c r="E146">
-        <v>31078.24</v>
+        <v>31078.240000000002</v>
       </c>
       <c r="F146" s="2">
         <v>45354</v>
@@ -10993,7 +11025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -11043,12 +11075,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>162</v>
       </c>
       <c r="B148">
-        <v>10233.79</v>
+        <v>10233.790000000001</v>
       </c>
       <c r="C148" s="2">
         <v>45304</v>
@@ -11057,7 +11089,7 @@
         <v>704</v>
       </c>
       <c r="E148">
-        <v>10233.79</v>
+        <v>10233.790000000001</v>
       </c>
       <c r="F148" s="2">
         <v>45301</v>
@@ -11093,7 +11125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -11143,7 +11175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -11193,12 +11225,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>165</v>
       </c>
       <c r="B151">
-        <v>39387.73</v>
+        <v>39387.730000000003</v>
       </c>
       <c r="C151" s="2">
         <v>45337</v>
@@ -11207,7 +11239,7 @@
         <v>707</v>
       </c>
       <c r="E151">
-        <v>39387.73</v>
+        <v>39387.730000000003</v>
       </c>
       <c r="F151" s="2">
         <v>45334</v>
@@ -11243,12 +11275,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>166</v>
       </c>
       <c r="B152">
-        <v>37856.13</v>
+        <v>37856.129999999997</v>
       </c>
       <c r="C152" s="2">
         <v>45376</v>
@@ -11257,7 +11289,7 @@
         <v>708</v>
       </c>
       <c r="E152">
-        <v>37856.13</v>
+        <v>37856.129999999997</v>
       </c>
       <c r="F152" s="2">
         <v>45373</v>
@@ -11293,7 +11325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>167</v>
       </c>
@@ -11343,7 +11375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -11393,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>169</v>
       </c>
@@ -11443,7 +11475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -11493,7 +11525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -11543,7 +11575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>172</v>
       </c>
@@ -11593,7 +11625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -11643,7 +11675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -11693,7 +11725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -11743,12 +11775,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>176</v>
       </c>
       <c r="B162">
-        <v>22394.64</v>
+        <v>22394.639999999999</v>
       </c>
       <c r="C162" s="2">
         <v>45371</v>
@@ -11757,7 +11789,7 @@
         <v>718</v>
       </c>
       <c r="E162">
-        <v>22394.64</v>
+        <v>22394.639999999999</v>
       </c>
       <c r="F162" s="2">
         <v>45368</v>
@@ -11793,7 +11825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -11843,7 +11875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -11893,7 +11925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -11943,12 +11975,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>180</v>
       </c>
       <c r="B166">
-        <v>38827.77</v>
+        <v>38827.769999999997</v>
       </c>
       <c r="C166" s="2">
         <v>45363</v>
@@ -11957,7 +11989,7 @@
         <v>722</v>
       </c>
       <c r="E166">
-        <v>38827.77</v>
+        <v>38827.769999999997</v>
       </c>
       <c r="F166" s="2">
         <v>45360</v>
@@ -11993,7 +12025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -12043,7 +12075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -12093,7 +12125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -12119,7 +12151,7 @@
         <v>100</v>
       </c>
       <c r="I169">
-        <v>93.23999999999999</v>
+        <v>93.24</v>
       </c>
       <c r="J169">
         <v>96.67</v>
@@ -12143,7 +12175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -12193,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -12243,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -12293,7 +12325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -12343,7 +12375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -12393,7 +12425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -12443,7 +12475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -12493,7 +12525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -12543,7 +12575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -12593,7 +12625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -12643,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -12693,7 +12725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -12743,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -12793,7 +12825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>197</v>
       </c>
@@ -12843,7 +12875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>198</v>
       </c>
@@ -12893,7 +12925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>199</v>
       </c>
@@ -12943,7 +12975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>200</v>
       </c>
@@ -12993,7 +13025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>201</v>
       </c>
@@ -13043,7 +13075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>202</v>
       </c>
@@ -13093,7 +13125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>203</v>
       </c>
@@ -13143,7 +13175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>204</v>
       </c>
@@ -13193,7 +13225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>205</v>
       </c>
@@ -13243,7 +13275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>206</v>
       </c>
@@ -13293,7 +13325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>207</v>
       </c>
@@ -13343,7 +13375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>208</v>
       </c>
@@ -13393,7 +13425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>209</v>
       </c>
@@ -13443,7 +13475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>210</v>
       </c>
@@ -13493,7 +13525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>211</v>
       </c>
@@ -13543,7 +13575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>212</v>
       </c>
@@ -13593,7 +13625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>213</v>
       </c>
@@ -13643,7 +13675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>214</v>
       </c>
@@ -13693,7 +13725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>215</v>
       </c>
@@ -13743,7 +13775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>216</v>
       </c>
@@ -13793,7 +13825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>217</v>
       </c>
@@ -13843,7 +13875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>218</v>
       </c>
@@ -13893,7 +13925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>219</v>
       </c>
@@ -13943,7 +13975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>220</v>
       </c>
@@ -13993,7 +14025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>221</v>
       </c>
@@ -14043,12 +14075,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>222</v>
       </c>
       <c r="B208">
-        <v>23403.28</v>
+        <v>23403.279999999999</v>
       </c>
       <c r="C208" s="2">
         <v>45352</v>
@@ -14057,7 +14089,7 @@
         <v>764</v>
       </c>
       <c r="E208">
-        <v>23403.28</v>
+        <v>23403.279999999999</v>
       </c>
       <c r="F208" s="2">
         <v>45348</v>
@@ -14093,7 +14125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>223</v>
       </c>
@@ -14143,12 +14175,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>224</v>
       </c>
       <c r="B210">
-        <v>22068.8</v>
+        <v>22068.799999999999</v>
       </c>
       <c r="C210" s="2">
         <v>45342</v>
@@ -14157,7 +14189,7 @@
         <v>766</v>
       </c>
       <c r="E210">
-        <v>22068.8</v>
+        <v>22068.799999999999</v>
       </c>
       <c r="F210" s="2">
         <v>45338</v>
@@ -14193,7 +14225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>225</v>
       </c>
@@ -14243,7 +14275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>226</v>
       </c>
@@ -14293,7 +14325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>227</v>
       </c>
@@ -14343,7 +14375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>228</v>
       </c>
@@ -14393,12 +14425,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>229</v>
       </c>
       <c r="B215">
-        <v>35450.45</v>
+        <v>35450.449999999997</v>
       </c>
       <c r="C215" s="2">
         <v>45306</v>
@@ -14407,7 +14439,7 @@
         <v>771</v>
       </c>
       <c r="E215">
-        <v>35450.45</v>
+        <v>35450.449999999997</v>
       </c>
       <c r="F215" s="2">
         <v>45302</v>
@@ -14443,7 +14475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>230</v>
       </c>
@@ -14493,7 +14525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>231</v>
       </c>
@@ -14543,7 +14575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>232</v>
       </c>
@@ -14593,12 +14625,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>233</v>
       </c>
       <c r="B219">
-        <v>37443.7</v>
+        <v>37443.699999999997</v>
       </c>
       <c r="C219" s="2">
         <v>45356</v>
@@ -14607,7 +14639,7 @@
         <v>775</v>
       </c>
       <c r="E219">
-        <v>37443.7</v>
+        <v>37443.699999999997</v>
       </c>
       <c r="F219" s="2">
         <v>45352</v>
@@ -14643,12 +14675,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>234</v>
       </c>
       <c r="B220">
-        <v>38834.27</v>
+        <v>38834.269999999997</v>
       </c>
       <c r="C220" s="2">
         <v>45299</v>
@@ -14657,7 +14689,7 @@
         <v>776</v>
       </c>
       <c r="E220">
-        <v>38834.27</v>
+        <v>38834.269999999997</v>
       </c>
       <c r="F220" s="2">
         <v>45295</v>
@@ -14693,7 +14725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>235</v>
       </c>
@@ -14743,12 +14775,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>236</v>
       </c>
       <c r="B222">
-        <v>36368.4</v>
+        <v>36368.400000000001</v>
       </c>
       <c r="C222" s="2">
         <v>45358</v>
@@ -14757,7 +14789,7 @@
         <v>778</v>
       </c>
       <c r="E222">
-        <v>36368.4</v>
+        <v>36368.400000000001</v>
       </c>
       <c r="F222" s="2">
         <v>45354</v>
@@ -14793,7 +14825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:16">
+    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>237</v>
       </c>
@@ -14843,7 +14875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>238</v>
       </c>
@@ -14893,7 +14925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>239</v>
       </c>
@@ -14943,12 +14975,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>240</v>
       </c>
       <c r="B226">
-        <v>52307.934</v>
+        <v>52307.934000000001</v>
       </c>
       <c r="C226" s="2">
         <v>45352</v>
@@ -14993,12 +15025,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>241</v>
       </c>
       <c r="B227">
-        <v>42101.0205</v>
+        <v>42101.020499999999</v>
       </c>
       <c r="C227" s="2">
         <v>45340</v>
@@ -15043,12 +15075,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>242</v>
       </c>
       <c r="B228">
-        <v>20504.3895</v>
+        <v>20504.389500000001</v>
       </c>
       <c r="C228" s="2">
         <v>45383</v>
@@ -15057,7 +15089,7 @@
         <v>784</v>
       </c>
       <c r="E228">
-        <v>19527.99</v>
+        <v>19527.990000000002</v>
       </c>
       <c r="F228" s="2">
         <v>45382</v>
@@ -15093,12 +15125,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>243</v>
       </c>
       <c r="B229">
-        <v>6025.656</v>
+        <v>6025.6559999999999</v>
       </c>
       <c r="C229" s="2">
         <v>45345</v>
@@ -15143,12 +15175,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>244</v>
       </c>
       <c r="B230">
-        <v>10133.5395</v>
+        <v>10133.539500000001</v>
       </c>
       <c r="C230" s="2">
         <v>45353</v>
@@ -15193,7 +15225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>245</v>
       </c>
@@ -15243,12 +15275,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>246</v>
       </c>
       <c r="B232">
-        <v>48696.522</v>
+        <v>48696.521999999997</v>
       </c>
       <c r="C232" s="2">
         <v>45306</v>
@@ -15293,12 +15325,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>247</v>
       </c>
       <c r="B233">
-        <v>6939.5235</v>
+        <v>6939.5235000000002</v>
       </c>
       <c r="C233" s="2">
         <v>45341</v>
@@ -15343,12 +15375,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>248</v>
       </c>
       <c r="B234">
-        <v>34624.9995</v>
+        <v>34624.999499999998</v>
       </c>
       <c r="C234" s="2">
         <v>45360</v>
@@ -15393,7 +15425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>249</v>
       </c>
@@ -15443,7 +15475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>250</v>
       </c>
@@ -15493,12 +15525,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>251</v>
       </c>
       <c r="B237">
-        <v>4358.193</v>
+        <v>4358.1930000000002</v>
       </c>
       <c r="C237" s="2">
         <v>45375</v>
@@ -15543,12 +15575,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>252</v>
       </c>
       <c r="B238">
-        <v>39172.791</v>
+        <v>39172.790999999997</v>
       </c>
       <c r="C238" s="2">
         <v>45332</v>
@@ -15593,12 +15625,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>253</v>
       </c>
       <c r="B239">
-        <v>43952.4855</v>
+        <v>43952.485500000003</v>
       </c>
       <c r="C239" s="2">
         <v>45294</v>
@@ -15643,12 +15675,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>254</v>
       </c>
       <c r="B240">
-        <v>8288.888999999999</v>
+        <v>8288.8889999999992</v>
       </c>
       <c r="C240" s="2">
         <v>45340</v>
@@ -15693,12 +15725,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>255</v>
       </c>
       <c r="B241">
-        <v>14028.504</v>
+        <v>14028.504000000001</v>
       </c>
       <c r="C241" s="2">
         <v>45329</v>
@@ -15743,7 +15775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>256</v>
       </c>
@@ -15793,12 +15825,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>257</v>
       </c>
       <c r="B243">
-        <v>20986.665</v>
+        <v>20986.665000000001</v>
       </c>
       <c r="C243" s="2">
         <v>45342</v>
@@ -15843,12 +15875,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>258</v>
       </c>
       <c r="B244">
-        <v>47159.6055</v>
+        <v>47159.605499999998</v>
       </c>
       <c r="C244" s="2">
         <v>45377</v>
@@ -15893,7 +15925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>259</v>
       </c>
@@ -15943,12 +15975,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>260</v>
       </c>
       <c r="B246">
-        <v>31102.995</v>
+        <v>31102.994999999999</v>
       </c>
       <c r="C246" s="2">
         <v>45333</v>
@@ -15993,12 +16025,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>261</v>
       </c>
       <c r="B247">
-        <v>7048.5345</v>
+        <v>7048.5344999999998</v>
       </c>
       <c r="C247" s="2">
         <v>45381</v>
@@ -16043,7 +16075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>262</v>
       </c>
@@ -16093,12 +16125,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:16">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>263</v>
       </c>
       <c r="B249">
-        <v>45662.5785</v>
+        <v>45662.578500000003</v>
       </c>
       <c r="C249" s="2">
         <v>45317</v>
@@ -16143,12 +16175,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>264</v>
       </c>
       <c r="B250">
-        <v>43798.2825</v>
+        <v>43798.282500000001</v>
       </c>
       <c r="C250" s="2">
         <v>45356</v>
@@ -16193,12 +16225,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>265</v>
       </c>
       <c r="B251">
-        <v>43885.275</v>
+        <v>43885.275000000001</v>
       </c>
       <c r="C251" s="2">
         <v>45307</v>
@@ -16243,7 +16275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>266</v>
       </c>
@@ -16293,7 +16325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>267</v>
       </c>
@@ -16343,12 +16375,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:16">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>268</v>
       </c>
       <c r="B254">
-        <v>23305.275</v>
+        <v>23305.275000000001</v>
       </c>
       <c r="C254" s="2">
         <v>45322</v>
@@ -16393,12 +16425,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>269</v>
       </c>
       <c r="B255">
-        <v>20619.207</v>
+        <v>20619.206999999999</v>
       </c>
       <c r="C255" s="2">
         <v>45322</v>
@@ -16443,12 +16475,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>270</v>
       </c>
       <c r="B256">
-        <v>6091.95299999999</v>
+        <v>6091.9529999999904</v>
       </c>
       <c r="C256" s="2">
         <v>45342</v>
@@ -16493,12 +16525,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>271</v>
       </c>
       <c r="B257">
-        <v>39170.4075</v>
+        <v>39170.407500000001</v>
       </c>
       <c r="C257" s="2">
         <v>45347</v>
@@ -16543,12 +16575,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>272</v>
       </c>
       <c r="B258">
-        <v>19449.612</v>
+        <v>19449.612000000001</v>
       </c>
       <c r="C258" s="2">
         <v>45311</v>
@@ -16557,7 +16589,7 @@
         <v>814</v>
       </c>
       <c r="E258">
-        <v>18523.44</v>
+        <v>18523.439999999999</v>
       </c>
       <c r="F258" s="2">
         <v>45310</v>
@@ -16593,7 +16625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>273</v>
       </c>
@@ -16643,7 +16675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:16">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>274</v>
       </c>
@@ -16693,7 +16725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>275</v>
       </c>
@@ -16743,12 +16775,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>276</v>
       </c>
       <c r="B262">
-        <v>32184.0015</v>
+        <v>32184.001499999998</v>
       </c>
       <c r="C262" s="2">
         <v>45334</v>
@@ -16793,12 +16825,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>277</v>
       </c>
       <c r="B263">
-        <v>35688.87</v>
+        <v>35688.870000000003</v>
       </c>
       <c r="C263" s="2">
         <v>45319</v>
@@ -16843,7 +16875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>278</v>
       </c>
@@ -16857,7 +16889,7 @@
         <v>820</v>
       </c>
       <c r="E264">
-        <v>22536.72</v>
+        <v>22536.720000000001</v>
       </c>
       <c r="F264" s="2">
         <v>45306</v>
@@ -16893,12 +16925,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>279</v>
       </c>
       <c r="B265">
-        <v>33137.916</v>
+        <v>33137.915999999997</v>
       </c>
       <c r="C265" s="2">
         <v>45318</v>
@@ -16907,7 +16939,7 @@
         <v>821</v>
       </c>
       <c r="E265">
-        <v>31559.92</v>
+        <v>31559.919999999998</v>
       </c>
       <c r="F265" s="2">
         <v>45317</v>
@@ -16943,12 +16975,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>280</v>
       </c>
       <c r="B266">
-        <v>1385.83199999999</v>
+        <v>1385.8319999999901</v>
       </c>
       <c r="C266" s="2">
         <v>45373</v>
@@ -16993,12 +17025,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>281</v>
       </c>
       <c r="B267">
-        <v>13286.0385</v>
+        <v>13286.038500000001</v>
       </c>
       <c r="C267" s="2">
         <v>45297</v>
@@ -17043,7 +17075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>282</v>
       </c>
@@ -17093,7 +17125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>283</v>
       </c>
@@ -17143,12 +17175,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:16">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>284</v>
       </c>
       <c r="B270">
-        <v>9140.061</v>
+        <v>9140.0609999999997</v>
       </c>
       <c r="C270" s="2">
         <v>45360</v>
@@ -17193,7 +17225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>285</v>
       </c>
@@ -17243,12 +17275,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:16">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>286</v>
       </c>
       <c r="B272">
-        <v>48133.6275</v>
+        <v>48133.627500000002</v>
       </c>
       <c r="C272" s="2">
         <v>45366</v>
@@ -17293,7 +17325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>287</v>
       </c>
@@ -17343,12 +17375,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>288</v>
       </c>
       <c r="B274">
-        <v>35837.23</v>
+        <v>35837.230000000003</v>
       </c>
       <c r="C274" s="2">
         <v>45307</v>
@@ -17357,7 +17389,7 @@
         <v>830</v>
       </c>
       <c r="E274">
-        <v>35837.23</v>
+        <v>35837.230000000003</v>
       </c>
       <c r="F274" s="2">
         <v>45302</v>
@@ -17393,7 +17425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:16">
+    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>289</v>
       </c>
@@ -17443,12 +17475,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:16">
+    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>290</v>
       </c>
       <c r="B276">
-        <v>20333.6</v>
+        <v>20333.599999999999</v>
       </c>
       <c r="C276" s="2">
         <v>45369</v>
@@ -17457,7 +17489,7 @@
         <v>832</v>
       </c>
       <c r="E276">
-        <v>20333.6</v>
+        <v>20333.599999999999</v>
       </c>
       <c r="F276" s="2">
         <v>45364</v>
@@ -17493,7 +17525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:16">
+    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>291</v>
       </c>
@@ -17543,7 +17575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>292</v>
       </c>
@@ -17593,7 +17625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:16">
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>293</v>
       </c>
@@ -17643,7 +17675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>294</v>
       </c>
@@ -17693,7 +17725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:16">
+    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>295</v>
       </c>
@@ -17743,7 +17775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:16">
+    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>296</v>
       </c>
@@ -17793,7 +17825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:16">
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>297</v>
       </c>
@@ -17843,7 +17875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:16">
+    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>298</v>
       </c>
@@ -17893,7 +17925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:16">
+    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>299</v>
       </c>
@@ -17943,7 +17975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:16">
+    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>300</v>
       </c>
@@ -17993,7 +18025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:16">
+    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>301</v>
       </c>
@@ -18043,7 +18075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:16">
+    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>302</v>
       </c>
@@ -18093,7 +18125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:16">
+    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>303</v>
       </c>
@@ -18143,7 +18175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:16">
+    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>304</v>
       </c>
@@ -18193,7 +18225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:16">
+    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>305</v>
       </c>
@@ -18243,7 +18275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:16">
+    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>306</v>
       </c>
@@ -18293,7 +18325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:16">
+    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>307</v>
       </c>
@@ -18343,7 +18375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:16">
+    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>308</v>
       </c>
@@ -18393,7 +18425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:16">
+    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>309</v>
       </c>
@@ -18443,7 +18475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:16">
+    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>310</v>
       </c>
@@ -18493,7 +18525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:16">
+    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>311</v>
       </c>
@@ -18543,7 +18575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:16">
+    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>312</v>
       </c>
@@ -18593,7 +18625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:16">
+    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>313</v>
       </c>
@@ -18643,7 +18675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:16">
+    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>314</v>
       </c>
@@ -18693,7 +18725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:16">
+    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>315</v>
       </c>
@@ -18743,7 +18775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:16">
+    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>316</v>
       </c>
@@ -18793,12 +18825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:16">
+    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>317</v>
       </c>
       <c r="B303">
-        <v>41534.59</v>
+        <v>41534.589999999997</v>
       </c>
       <c r="C303" s="2">
         <v>45364</v>
@@ -18807,7 +18839,7 @@
         <v>859</v>
       </c>
       <c r="E303">
-        <v>41534.59</v>
+        <v>41534.589999999997</v>
       </c>
       <c r="F303" s="2">
         <v>45359</v>
@@ -18843,7 +18875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:16">
+    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>318</v>
       </c>
@@ -18893,7 +18925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:16">
+    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>319</v>
       </c>
@@ -18943,7 +18975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:16">
+    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>320</v>
       </c>
@@ -18993,7 +19025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:16">
+    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>321</v>
       </c>
@@ -19043,7 +19075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:16">
+    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>322</v>
       </c>
@@ -19093,12 +19125,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:16">
+    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>323</v>
       </c>
       <c r="B309">
-        <v>19547.9</v>
+        <v>19547.900000000001</v>
       </c>
       <c r="C309" s="2">
         <v>45333</v>
@@ -19107,7 +19139,7 @@
         <v>865</v>
       </c>
       <c r="E309">
-        <v>19547.9</v>
+        <v>19547.900000000001</v>
       </c>
       <c r="F309" s="2">
         <v>45328</v>
@@ -19143,7 +19175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:16">
+    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>324</v>
       </c>
@@ -19193,7 +19225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:16">
+    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>325</v>
       </c>
@@ -19243,7 +19275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:16">
+    <row r="312" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>326</v>
       </c>
@@ -19293,7 +19325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:16">
+    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>327</v>
       </c>
@@ -19343,7 +19375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:16">
+    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>328</v>
       </c>
@@ -19393,7 +19425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:16">
+    <row r="315" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>329</v>
       </c>
@@ -19443,7 +19475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:16">
+    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>330</v>
       </c>
@@ -19493,7 +19525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:16">
+    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>331</v>
       </c>
@@ -19543,7 +19575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:16">
+    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>332</v>
       </c>
@@ -19593,7 +19625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:16">
+    <row r="319" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>333</v>
       </c>
@@ -19643,12 +19675,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:16">
+    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>334</v>
       </c>
       <c r="B320">
-        <v>8749.889999999999</v>
+        <v>8749.89</v>
       </c>
       <c r="C320" s="2">
         <v>45352</v>
@@ -19657,7 +19689,7 @@
         <v>876</v>
       </c>
       <c r="E320">
-        <v>8749.889999999999</v>
+        <v>8749.89</v>
       </c>
       <c r="F320" s="2">
         <v>45347</v>
@@ -19693,7 +19725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:16">
+    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>335</v>
       </c>
@@ -19743,7 +19775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:16">
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>336</v>
       </c>
@@ -19793,7 +19825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:16">
+    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>337</v>
       </c>
@@ -19843,7 +19875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:16">
+    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>338</v>
       </c>
@@ -19893,12 +19925,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:16">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>339</v>
       </c>
       <c r="B325">
-        <v>1090.362</v>
+        <v>1090.3620000000001</v>
       </c>
       <c r="C325" s="2">
         <v>45372</v>
@@ -19943,12 +19975,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:16">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>340</v>
       </c>
       <c r="B326">
-        <v>16776.0915</v>
+        <v>16776.091499999999</v>
       </c>
       <c r="C326" s="2">
         <v>45306</v>
@@ -19993,12 +20025,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:16">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>341</v>
       </c>
       <c r="B327">
-        <v>4974.35399999999</v>
+        <v>4974.3539999999903</v>
       </c>
       <c r="C327" s="2">
         <v>45355</v>
@@ -20007,7 +20039,7 @@
         <v>883</v>
       </c>
       <c r="E327">
-        <v>4737.48</v>
+        <v>4737.4799999999996</v>
       </c>
       <c r="F327" s="2">
         <v>45353</v>
@@ -20043,7 +20075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:16">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>342</v>
       </c>
@@ -20093,12 +20125,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:16">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>343</v>
       </c>
       <c r="B329">
-        <v>44847.9675</v>
+        <v>44847.967499999999</v>
       </c>
       <c r="C329" s="2">
         <v>45366</v>
@@ -20143,7 +20175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:16">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>344</v>
       </c>
@@ -20193,12 +20225,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:16">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>345</v>
       </c>
       <c r="B331">
-        <v>7212.0615</v>
+        <v>7212.0614999999998</v>
       </c>
       <c r="C331" s="2">
         <v>45376</v>
@@ -20243,12 +20275,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:16">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>346</v>
       </c>
       <c r="B332">
-        <v>34952.799</v>
+        <v>34952.798999999999</v>
       </c>
       <c r="C332" s="2">
         <v>45323</v>
@@ -20257,7 +20289,7 @@
         <v>888</v>
       </c>
       <c r="E332">
-        <v>33288.38</v>
+        <v>33288.379999999997</v>
       </c>
       <c r="F332" s="2">
         <v>45321</v>
@@ -20293,7 +20325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:16">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>347</v>
       </c>
@@ -20343,7 +20375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:16">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>348</v>
       </c>
@@ -20393,12 +20425,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:16">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>349</v>
       </c>
       <c r="B335">
-        <v>44248.0709999999</v>
+        <v>44248.070999999902</v>
       </c>
       <c r="C335" s="2">
         <v>45340</v>
@@ -20443,12 +20475,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:16">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>350</v>
       </c>
       <c r="B336">
-        <v>41432.5065</v>
+        <v>41432.506500000003</v>
       </c>
       <c r="C336" s="2">
         <v>45340</v>
@@ -20493,12 +20525,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>351</v>
       </c>
       <c r="B337">
-        <v>8844.674999999999</v>
+        <v>8844.6749999999993</v>
       </c>
       <c r="C337" s="2">
         <v>45382</v>
@@ -20543,12 +20575,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>352</v>
       </c>
       <c r="B338">
-        <v>25075.827</v>
+        <v>25075.827000000001</v>
       </c>
       <c r="C338" s="2">
         <v>45312</v>
@@ -20593,12 +20625,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>353</v>
       </c>
       <c r="B339">
-        <v>4880.925</v>
+        <v>4880.9250000000002</v>
       </c>
       <c r="C339" s="2">
         <v>45370</v>
@@ -20643,12 +20675,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>354</v>
       </c>
       <c r="B340">
-        <v>39504.801</v>
+        <v>39504.800999999999</v>
       </c>
       <c r="C340" s="2">
         <v>45349</v>
@@ -20657,7 +20689,7 @@
         <v>896</v>
       </c>
       <c r="E340">
-        <v>37623.62</v>
+        <v>37623.620000000003</v>
       </c>
       <c r="F340" s="2">
         <v>45347</v>
@@ -20693,7 +20725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>355</v>
       </c>
@@ -20743,7 +20775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>356</v>
       </c>
@@ -20793,12 +20825,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>357</v>
       </c>
       <c r="B343">
-        <v>45749.8545</v>
+        <v>45749.854500000001</v>
       </c>
       <c r="C343" s="2">
         <v>45376</v>
@@ -20843,12 +20875,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:16">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>358</v>
       </c>
       <c r="B344">
-        <v>30809.646</v>
+        <v>30809.646000000001</v>
       </c>
       <c r="C344" s="2">
         <v>45306</v>
@@ -20893,12 +20925,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>359</v>
       </c>
       <c r="B345">
-        <v>27187.146</v>
+        <v>27187.146000000001</v>
       </c>
       <c r="C345" s="2">
         <v>45361</v>
@@ -20943,12 +20975,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>360</v>
       </c>
       <c r="B346">
-        <v>22800.8235</v>
+        <v>22800.823499999999</v>
       </c>
       <c r="C346" s="2">
         <v>45357</v>
@@ -20993,7 +21025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>361</v>
       </c>
@@ -21007,7 +21039,7 @@
         <v>903</v>
       </c>
       <c r="E347">
-        <v>27401.92</v>
+        <v>27401.919999999998</v>
       </c>
       <c r="F347" s="2">
         <v>45360</v>
@@ -21043,12 +21075,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>362</v>
       </c>
       <c r="B348">
-        <v>47114.781</v>
+        <v>47114.781000000003</v>
       </c>
       <c r="C348" s="2">
         <v>45307</v>
@@ -21093,7 +21125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>363</v>
       </c>
@@ -21143,12 +21175,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>364</v>
       </c>
       <c r="B350">
-        <v>13697.229</v>
+        <v>13697.228999999999</v>
       </c>
       <c r="C350" s="2">
         <v>45348</v>
@@ -21193,12 +21225,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>365</v>
       </c>
       <c r="B351">
-        <v>5909.295</v>
+        <v>5909.2950000000001</v>
       </c>
       <c r="C351" s="2">
         <v>45302</v>
@@ -21243,12 +21275,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>366</v>
       </c>
       <c r="B352">
-        <v>41406.3615</v>
+        <v>41406.361499999999</v>
       </c>
       <c r="C352" s="2">
         <v>45381</v>
@@ -21257,7 +21289,7 @@
         <v>908</v>
       </c>
       <c r="E352">
-        <v>39434.63</v>
+        <v>39434.629999999997</v>
       </c>
       <c r="F352" s="2">
         <v>45379</v>
@@ -21293,7 +21325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:16">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>367</v>
       </c>
@@ -21343,12 +21375,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:16">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>368</v>
       </c>
       <c r="B354">
-        <v>28358.9775</v>
+        <v>28358.977500000001</v>
       </c>
       <c r="C354" s="2">
         <v>45341</v>
@@ -21393,12 +21425,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:16">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>369</v>
       </c>
       <c r="B355">
-        <v>25322.6925</v>
+        <v>25322.692500000001</v>
       </c>
       <c r="C355" s="2">
         <v>45355</v>
@@ -21443,7 +21475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:16">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>370</v>
       </c>
@@ -21457,7 +21489,7 @@
         <v>912</v>
       </c>
       <c r="E356">
-        <v>38239.27</v>
+        <v>38239.269999999997</v>
       </c>
       <c r="F356" s="2">
         <v>45336</v>
@@ -21493,12 +21525,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:16">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>371</v>
       </c>
       <c r="B357">
-        <v>37347.933</v>
+        <v>37347.932999999997</v>
       </c>
       <c r="C357" s="2">
         <v>45322</v>
@@ -21543,12 +21575,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:16">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>372</v>
       </c>
       <c r="B358">
-        <v>2597.217</v>
+        <v>2597.2170000000001</v>
       </c>
       <c r="C358" s="2">
         <v>45323</v>
@@ -21593,12 +21625,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:16">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>373</v>
       </c>
       <c r="B359">
-        <v>35749.4025</v>
+        <v>35749.402499999997</v>
       </c>
       <c r="C359" s="2">
         <v>45334</v>
@@ -21607,7 +21639,7 @@
         <v>915</v>
       </c>
       <c r="E359">
-        <v>34047.05</v>
+        <v>34047.050000000003</v>
       </c>
       <c r="F359" s="2">
         <v>45332</v>
@@ -21643,12 +21675,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:16">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>374</v>
       </c>
       <c r="B360">
-        <v>41938.4385</v>
+        <v>41938.438499999997</v>
       </c>
       <c r="C360" s="2">
         <v>45341</v>
@@ -21657,7 +21689,7 @@
         <v>916</v>
       </c>
       <c r="E360">
-        <v>39941.37</v>
+        <v>39941.370000000003</v>
       </c>
       <c r="F360" s="2">
         <v>45339</v>
@@ -21693,7 +21725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:16">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>375</v>
       </c>
@@ -21743,12 +21775,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:16">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>376</v>
       </c>
       <c r="B362">
-        <v>26414.1465</v>
+        <v>26414.146499999999</v>
       </c>
       <c r="C362" s="2">
         <v>45304</v>
@@ -21793,12 +21825,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:16">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>377</v>
       </c>
       <c r="B363">
-        <v>2135.868</v>
+        <v>2135.8679999999999</v>
       </c>
       <c r="C363" s="2">
         <v>45315</v>
@@ -21843,12 +21875,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:16">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>378</v>
       </c>
       <c r="B364">
-        <v>40993.449</v>
+        <v>40993.449000000001</v>
       </c>
       <c r="C364" s="2">
         <v>45361</v>
@@ -21857,7 +21889,7 @@
         <v>920</v>
       </c>
       <c r="E364">
-        <v>39041.38</v>
+        <v>39041.379999999997</v>
       </c>
       <c r="F364" s="2">
         <v>45359</v>
@@ -21893,12 +21925,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:16">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>379</v>
       </c>
       <c r="B365">
-        <v>25972.4325</v>
+        <v>25972.432499999999</v>
       </c>
       <c r="C365" s="2">
         <v>45300</v>
@@ -21943,7 +21975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:16">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>380</v>
       </c>
@@ -21993,7 +22025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:16">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>381</v>
       </c>
@@ -22007,7 +22039,7 @@
         <v>923</v>
       </c>
       <c r="E367">
-        <v>25313.92</v>
+        <v>25313.919999999998</v>
       </c>
       <c r="F367" s="2">
         <v>45302</v>
@@ -22043,12 +22075,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:16">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>382</v>
       </c>
       <c r="B368">
-        <v>34398.336</v>
+        <v>34398.336000000003</v>
       </c>
       <c r="C368" s="2">
         <v>45349</v>
@@ -22093,7 +22125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:16">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>383</v>
       </c>
@@ -22143,7 +22175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:16">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>384</v>
       </c>
@@ -22193,7 +22225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:16">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>385</v>
       </c>
@@ -22243,12 +22275,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:16">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>386</v>
       </c>
       <c r="B372">
-        <v>7048.104</v>
+        <v>7048.1040000000003</v>
       </c>
       <c r="C372" s="2">
         <v>45345</v>
@@ -22293,12 +22325,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:16">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>387</v>
       </c>
       <c r="B373">
-        <v>19148.7555</v>
+        <v>19148.755499999999</v>
       </c>
       <c r="C373" s="2">
         <v>45355</v>
@@ -22343,12 +22375,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:16">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>388</v>
       </c>
       <c r="B374">
-        <v>18421.7985</v>
+        <v>18421.798500000001</v>
       </c>
       <c r="C374" s="2">
         <v>45353</v>
@@ -22393,12 +22425,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:16">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>389</v>
       </c>
       <c r="B375">
-        <v>50891.4525</v>
+        <v>50891.452499999999</v>
       </c>
       <c r="C375" s="2">
         <v>45329</v>
@@ -22443,12 +22475,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:16">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>390</v>
       </c>
       <c r="B376">
-        <v>26735.415</v>
+        <v>26735.415000000001</v>
       </c>
       <c r="C376" s="2">
         <v>45361</v>
@@ -22493,12 +22525,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:16">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>391</v>
       </c>
       <c r="B377">
-        <v>37752.9075</v>
+        <v>37752.907500000001</v>
       </c>
       <c r="C377" s="2">
         <v>45380</v>
@@ -22543,12 +22575,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:16">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>392</v>
       </c>
       <c r="B378">
-        <v>3768.786</v>
+        <v>3768.7860000000001</v>
       </c>
       <c r="C378" s="2">
         <v>45301</v>
@@ -22593,7 +22625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:16">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>393</v>
       </c>
@@ -22643,12 +22675,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:16">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>394</v>
       </c>
       <c r="B380">
-        <v>35933.8035</v>
+        <v>35933.803500000002</v>
       </c>
       <c r="C380" s="2">
         <v>45349</v>
@@ -22693,12 +22725,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:16">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>395</v>
       </c>
       <c r="B381">
-        <v>18376.008</v>
+        <v>18376.008000000002</v>
       </c>
       <c r="C381" s="2">
         <v>45375</v>
@@ -22743,12 +22775,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:16">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>396</v>
       </c>
       <c r="B382">
-        <v>47361.5415</v>
+        <v>47361.541499999999</v>
       </c>
       <c r="C382" s="2">
         <v>45326</v>
@@ -22793,12 +22825,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:16">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>397</v>
       </c>
       <c r="B383">
-        <v>17165.7675</v>
+        <v>17165.767500000002</v>
       </c>
       <c r="C383" s="2">
         <v>45312</v>
@@ -22843,7 +22875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:16">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>398</v>
       </c>
@@ -22893,7 +22925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:16">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>399</v>
       </c>
@@ -22943,12 +22975,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:16">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>400</v>
       </c>
       <c r="B386">
-        <v>13928.6385</v>
+        <v>13928.638499999999</v>
       </c>
       <c r="C386" s="2">
         <v>45303</v>
@@ -22993,12 +23025,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:16">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>401</v>
       </c>
       <c r="B387">
-        <v>42171.8114999999</v>
+        <v>42171.811499999902</v>
       </c>
       <c r="C387" s="2">
         <v>45337</v>
@@ -23007,7 +23039,7 @@
         <v>943</v>
       </c>
       <c r="E387">
-        <v>40163.63</v>
+        <v>40163.629999999997</v>
       </c>
       <c r="F387" s="2">
         <v>45334</v>
@@ -23043,12 +23075,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:16">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>402</v>
       </c>
       <c r="B388">
-        <v>13689.291</v>
+        <v>13689.290999999999</v>
       </c>
       <c r="C388" s="2">
         <v>45320</v>
@@ -23093,7 +23125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:16">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>403</v>
       </c>
@@ -23143,12 +23175,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:16">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>404</v>
       </c>
       <c r="B390">
-        <v>39413.3775</v>
+        <v>39413.377500000002</v>
       </c>
       <c r="C390" s="2">
         <v>45343</v>
@@ -23157,7 +23189,7 @@
         <v>946</v>
       </c>
       <c r="E390">
-        <v>37536.55</v>
+        <v>37536.550000000003</v>
       </c>
       <c r="F390" s="2">
         <v>45340</v>
@@ -23193,12 +23225,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:16">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>405</v>
       </c>
       <c r="B391">
-        <v>34611.4965</v>
+        <v>34611.496500000001</v>
       </c>
       <c r="C391" s="2">
         <v>45377</v>
@@ -23243,12 +23275,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:16">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>406</v>
       </c>
       <c r="B392">
-        <v>22513.092</v>
+        <v>22513.092000000001</v>
       </c>
       <c r="C392" s="2">
         <v>45295</v>
@@ -23257,7 +23289,7 @@
         <v>948</v>
       </c>
       <c r="E392">
-        <v>21441.04</v>
+        <v>21441.040000000001</v>
       </c>
       <c r="F392" s="2">
         <v>45292</v>
@@ -23293,12 +23325,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:16">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>407</v>
       </c>
       <c r="B393">
-        <v>14151.6375</v>
+        <v>14151.637500000001</v>
       </c>
       <c r="C393" s="2">
         <v>45347</v>
@@ -23343,12 +23375,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:16">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>408</v>
       </c>
       <c r="B394">
-        <v>8691.9735</v>
+        <v>8691.9735000000001</v>
       </c>
       <c r="C394" s="2">
         <v>45355</v>
@@ -23393,12 +23425,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:16">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>409</v>
       </c>
       <c r="B395">
-        <v>45612.5565</v>
+        <v>45612.556499999999</v>
       </c>
       <c r="C395" s="2">
         <v>45321</v>
@@ -23443,12 +23475,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:16">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>410</v>
       </c>
       <c r="B396">
-        <v>28393.0395</v>
+        <v>28393.039499999999</v>
       </c>
       <c r="C396" s="2">
         <v>45367</v>
@@ -23493,12 +23525,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:16">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>411</v>
       </c>
       <c r="B397">
-        <v>38570.931</v>
+        <v>38570.930999999997</v>
       </c>
       <c r="C397" s="2">
         <v>45300</v>
@@ -23543,12 +23575,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:16">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>412</v>
       </c>
       <c r="B398">
-        <v>4668.888</v>
+        <v>4668.8879999999999</v>
       </c>
       <c r="C398" s="2">
         <v>45325</v>
@@ -23557,7 +23589,7 @@
         <v>954</v>
       </c>
       <c r="E398">
-        <v>4446.56</v>
+        <v>4446.5600000000004</v>
       </c>
       <c r="F398" s="2">
         <v>45322</v>
@@ -23593,12 +23625,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:16">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>413</v>
       </c>
       <c r="B399">
-        <v>4136.8005</v>
+        <v>4136.8005000000003</v>
       </c>
       <c r="C399" s="2">
         <v>45331</v>
@@ -23643,12 +23675,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:16">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>414</v>
       </c>
       <c r="B400">
-        <v>29912.778</v>
+        <v>29912.777999999998</v>
       </c>
       <c r="C400" s="2">
         <v>45303</v>
@@ -23693,12 +23725,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:16">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>415</v>
       </c>
       <c r="B401">
-        <v>4674.579</v>
+        <v>4674.5789999999997</v>
       </c>
       <c r="C401" s="2">
         <v>45341</v>
@@ -23707,7 +23739,7 @@
         <v>957</v>
       </c>
       <c r="E401">
-        <v>4451.98</v>
+        <v>4451.9799999999996</v>
       </c>
       <c r="F401" s="2">
         <v>45338</v>
@@ -23743,7 +23775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:16">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>416</v>
       </c>
@@ -23757,7 +23789,7 @@
         <v>958</v>
       </c>
       <c r="E402">
-        <v>38413.2</v>
+        <v>38413.199999999997</v>
       </c>
       <c r="F402" s="2">
         <v>45327</v>
@@ -23793,12 +23825,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:16">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>417</v>
       </c>
       <c r="B403">
-        <v>40765.368</v>
+        <v>40765.368000000002</v>
       </c>
       <c r="C403" s="2">
         <v>45301</v>
@@ -23807,7 +23839,7 @@
         <v>959</v>
       </c>
       <c r="E403">
-        <v>38824.16</v>
+        <v>38824.160000000003</v>
       </c>
       <c r="F403" s="2">
         <v>45298</v>
@@ -23843,12 +23875,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:16">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>418</v>
       </c>
       <c r="B404">
-        <v>6327.447</v>
+        <v>6327.4470000000001</v>
       </c>
       <c r="C404" s="2">
         <v>45368</v>
@@ -23893,7 +23925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:16">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>419</v>
       </c>
@@ -23943,12 +23975,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:16">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>420</v>
       </c>
       <c r="B406">
-        <v>36010.3275</v>
+        <v>36010.327499999999</v>
       </c>
       <c r="C406" s="2">
         <v>45313</v>
@@ -23957,7 +23989,7 @@
         <v>962</v>
       </c>
       <c r="E406">
-        <v>34295.55</v>
+        <v>34295.550000000003</v>
       </c>
       <c r="F406" s="2">
         <v>45310</v>
@@ -23993,7 +24025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:16">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>421</v>
       </c>
@@ -24043,12 +24075,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:16">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>422</v>
       </c>
       <c r="B408">
-        <v>26856.1965</v>
+        <v>26856.196499999998</v>
       </c>
       <c r="C408" s="2">
         <v>45383</v>
@@ -24093,12 +24125,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:16">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>423</v>
       </c>
       <c r="B409">
-        <v>21361.0845</v>
+        <v>21361.084500000001</v>
       </c>
       <c r="C409" s="2">
         <v>45299</v>
@@ -24143,12 +24175,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:16">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>424</v>
       </c>
       <c r="B410">
-        <v>44008.7865</v>
+        <v>44008.786500000002</v>
       </c>
       <c r="C410" s="2">
         <v>45343</v>
@@ -24157,7 +24189,7 @@
         <v>966</v>
       </c>
       <c r="E410">
-        <v>41913.13</v>
+        <v>41913.129999999997</v>
       </c>
       <c r="F410" s="2">
         <v>45340</v>
@@ -24193,7 +24225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:16">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>425</v>
       </c>
@@ -24207,7 +24239,7 @@
         <v>967</v>
       </c>
       <c r="E411">
-        <v>40620.4</v>
+        <v>40620.400000000001</v>
       </c>
       <c r="F411" s="2">
         <v>45332</v>
@@ -24243,12 +24275,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:16">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>426</v>
       </c>
       <c r="B412">
-        <v>13949.691</v>
+        <v>13949.691000000001</v>
       </c>
       <c r="C412" s="2">
         <v>45330</v>
@@ -24293,12 +24325,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:16">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>427</v>
       </c>
       <c r="B413">
-        <v>49846.209</v>
+        <v>49846.209000000003</v>
       </c>
       <c r="C413" s="2">
         <v>45331</v>
@@ -24343,12 +24375,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:16">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>428</v>
       </c>
       <c r="B414">
-        <v>46279.4535</v>
+        <v>46279.453500000003</v>
       </c>
       <c r="C414" s="2">
         <v>45308</v>
@@ -24393,12 +24425,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:16">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>429</v>
       </c>
       <c r="B415">
-        <v>20996.2515</v>
+        <v>20996.251499999998</v>
       </c>
       <c r="C415" s="2">
         <v>45366</v>
@@ -24443,7 +24475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:16">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>430</v>
       </c>
@@ -24493,12 +24525,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:16">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>431</v>
       </c>
       <c r="B417">
-        <v>5844.573</v>
+        <v>5844.5730000000003</v>
       </c>
       <c r="C417" s="2">
         <v>45372</v>
@@ -24543,7 +24575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:16">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>432</v>
       </c>
@@ -24593,12 +24625,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:16">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>433</v>
       </c>
       <c r="B419">
-        <v>7794.8115</v>
+        <v>7794.8114999999998</v>
       </c>
       <c r="C419" s="2">
         <v>45385</v>
@@ -24643,7 +24675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:16">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>434</v>
       </c>
@@ -24693,7 +24725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:16">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>435</v>
       </c>
@@ -24743,7 +24775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:16">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>436</v>
       </c>
@@ -24793,12 +24825,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:16">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>437</v>
       </c>
       <c r="B423">
-        <v>2681.5215</v>
+        <v>2681.5214999999998</v>
       </c>
       <c r="C423" s="2">
         <v>45364</v>
@@ -24843,12 +24875,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:16">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>438</v>
       </c>
       <c r="B424">
-        <v>6466.446</v>
+        <v>6466.4459999999999</v>
       </c>
       <c r="C424" s="2">
         <v>45380</v>
@@ -24893,7 +24925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:16">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>439</v>
       </c>
@@ -24943,7 +24975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:16">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>440</v>
       </c>
@@ -24993,12 +25025,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:16">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>441</v>
       </c>
       <c r="B427">
-        <v>3538.773</v>
+        <v>3538.7730000000001</v>
       </c>
       <c r="C427" s="2">
         <v>45376</v>
@@ -25043,12 +25075,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:16">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>442</v>
       </c>
       <c r="B428">
-        <v>41783.343</v>
+        <v>41783.343000000001</v>
       </c>
       <c r="C428" s="2">
         <v>45320</v>
@@ -25057,7 +25089,7 @@
         <v>984</v>
       </c>
       <c r="E428">
-        <v>39793.66</v>
+        <v>39793.660000000003</v>
       </c>
       <c r="F428" s="2">
         <v>45316</v>
@@ -25093,12 +25125,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:16">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>443</v>
       </c>
       <c r="B429">
-        <v>17681.622</v>
+        <v>17681.621999999999</v>
       </c>
       <c r="C429" s="2">
         <v>45308</v>
@@ -25143,12 +25175,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:16">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>444</v>
       </c>
       <c r="B430">
-        <v>8139.663</v>
+        <v>8139.6629999999996</v>
       </c>
       <c r="C430" s="2">
         <v>45378</v>
@@ -25193,7 +25225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:16">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>445</v>
       </c>
@@ -25207,7 +25239,7 @@
         <v>987</v>
       </c>
       <c r="E431">
-        <v>21210.24</v>
+        <v>21210.240000000002</v>
       </c>
       <c r="F431" s="2">
         <v>45343</v>
@@ -25243,12 +25275,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:16">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>446</v>
       </c>
       <c r="B432">
-        <v>29762.8905</v>
+        <v>29762.890500000001</v>
       </c>
       <c r="C432" s="2">
         <v>45329</v>
@@ -25293,7 +25325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:16">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>447</v>
       </c>
@@ -25343,7 +25375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:16">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>448</v>
       </c>
@@ -25393,12 +25425,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:16">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>449</v>
       </c>
       <c r="B435">
-        <v>30491.139</v>
+        <v>30491.138999999999</v>
       </c>
       <c r="C435" s="2">
         <v>45306</v>
@@ -25443,7 +25475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:16">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>450</v>
       </c>
@@ -25493,12 +25525,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:16">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>451</v>
       </c>
       <c r="B437">
-        <v>5291.811</v>
+        <v>5291.8109999999997</v>
       </c>
       <c r="C437" s="2">
         <v>45353</v>
@@ -25543,7 +25575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:16">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>452</v>
       </c>
@@ -25557,7 +25589,7 @@
         <v>994</v>
       </c>
       <c r="E438">
-        <v>45357.6</v>
+        <v>45357.599999999999</v>
       </c>
       <c r="F438" s="2">
         <v>45324</v>
@@ -25593,7 +25625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:16">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>453</v>
       </c>
@@ -25643,7 +25675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:16">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>454</v>
       </c>
@@ -25693,12 +25725,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:16">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>455</v>
       </c>
       <c r="B441">
-        <v>49346.262</v>
+        <v>49346.262000000002</v>
       </c>
       <c r="C441" s="2">
         <v>45372</v>
@@ -25743,7 +25775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:16">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>456</v>
       </c>
@@ -25793,12 +25825,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:16">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>457</v>
       </c>
       <c r="B443">
-        <v>18429.5475</v>
+        <v>18429.547500000001</v>
       </c>
       <c r="C443" s="2">
         <v>45321</v>
@@ -25843,12 +25875,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:16">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>458</v>
       </c>
       <c r="B444">
-        <v>20389.3515</v>
+        <v>20389.351500000001</v>
       </c>
       <c r="C444" s="2">
         <v>45357</v>
@@ -25893,12 +25925,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:16">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>459</v>
       </c>
       <c r="B445">
-        <v>28088.151</v>
+        <v>28088.151000000002</v>
       </c>
       <c r="C445" s="2">
         <v>45344</v>
@@ -25943,12 +25975,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:16">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>460</v>
       </c>
       <c r="B446">
-        <v>3411.2715</v>
+        <v>3411.2714999999998</v>
       </c>
       <c r="C446" s="2">
         <v>45342</v>
@@ -25993,12 +26025,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:16">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>461</v>
       </c>
       <c r="B447">
-        <v>41018.229</v>
+        <v>41018.228999999999</v>
       </c>
       <c r="C447" s="2">
         <v>45325</v>
@@ -26007,7 +26039,7 @@
         <v>1003</v>
       </c>
       <c r="E447">
-        <v>39064.98</v>
+        <v>39064.980000000003</v>
       </c>
       <c r="F447" s="2">
         <v>45321</v>
@@ -26043,12 +26075,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:16">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>462</v>
       </c>
       <c r="B448">
-        <v>37353.5715</v>
+        <v>37353.571499999998</v>
       </c>
       <c r="C448" s="2">
         <v>45299</v>
@@ -26093,12 +26125,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:16">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>463</v>
       </c>
       <c r="B449">
-        <v>49497.567</v>
+        <v>49497.567000000003</v>
       </c>
       <c r="C449" s="2">
         <v>45382</v>
@@ -26143,12 +26175,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:16">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>464</v>
       </c>
       <c r="B450">
-        <v>35787.444</v>
+        <v>35787.444000000003</v>
       </c>
       <c r="C450" s="2">
         <v>45304</v>
@@ -26157,7 +26189,7 @@
         <v>1006</v>
       </c>
       <c r="E450">
-        <v>34083.28</v>
+        <v>34083.279999999999</v>
       </c>
       <c r="F450" s="2">
         <v>45300</v>
@@ -26193,12 +26225,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:16">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>465</v>
       </c>
       <c r="B451">
-        <v>51420.222</v>
+        <v>51420.222000000002</v>
       </c>
       <c r="C451" s="2">
         <v>45379</v>
@@ -26243,7 +26275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:16">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>466</v>
       </c>
@@ -26293,12 +26325,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:16">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>467</v>
       </c>
       <c r="B453">
-        <v>16084.7295</v>
+        <v>16084.729499999999</v>
       </c>
       <c r="C453" s="2">
         <v>45358</v>
@@ -26343,12 +26375,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:16">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>468</v>
       </c>
       <c r="B454">
-        <v>4200.882</v>
+        <v>4200.8819999999996</v>
       </c>
       <c r="C454" s="2">
         <v>45344</v>
@@ -26393,12 +26425,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:16">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>469</v>
       </c>
       <c r="B455">
-        <v>52161.984</v>
+        <v>52161.983999999997</v>
       </c>
       <c r="C455" s="2">
         <v>45329</v>
@@ -26407,7 +26439,7 @@
         <v>1011</v>
       </c>
       <c r="E455">
-        <v>49678.08</v>
+        <v>49678.080000000002</v>
       </c>
       <c r="F455" s="2">
         <v>45325</v>
@@ -26443,12 +26475,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:16">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>470</v>
       </c>
       <c r="B456">
-        <v>50962.905</v>
+        <v>50962.904999999999</v>
       </c>
       <c r="C456" s="2">
         <v>45300</v>
@@ -26493,7 +26525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:16">
+    <row r="457" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>471</v>
       </c>
@@ -26543,12 +26575,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:16">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>472</v>
       </c>
       <c r="B458">
-        <v>6197.247</v>
+        <v>6197.2470000000003</v>
       </c>
       <c r="C458" s="2">
         <v>45341</v>
@@ -26593,12 +26625,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:16">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>473</v>
       </c>
       <c r="B459">
-        <v>5546.898</v>
+        <v>5546.8980000000001</v>
       </c>
       <c r="C459" s="2">
         <v>45360</v>
@@ -26643,12 +26675,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:16">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>474</v>
       </c>
       <c r="B460">
-        <v>1655.8185</v>
+        <v>1655.8185000000001</v>
       </c>
       <c r="C460" s="2">
         <v>45324</v>
@@ -26693,12 +26725,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:16">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>475</v>
       </c>
       <c r="B461">
-        <v>6474.0795</v>
+        <v>6474.0794999999998</v>
       </c>
       <c r="C461" s="2">
         <v>45367</v>
@@ -26743,7 +26775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:16">
+    <row r="462" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>476</v>
       </c>
@@ -26793,12 +26825,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:16">
+    <row r="463" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>477</v>
       </c>
       <c r="B463">
-        <v>32948.706</v>
+        <v>32948.705999999998</v>
       </c>
       <c r="C463" s="2">
         <v>45324</v>
@@ -26843,7 +26875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:16">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>478</v>
       </c>
@@ -26893,7 +26925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:16">
+    <row r="465" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>479</v>
       </c>
@@ -26943,12 +26975,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:16">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>480</v>
       </c>
       <c r="B466">
-        <v>8857.254000000001</v>
+        <v>8857.2540000000008</v>
       </c>
       <c r="C466" s="2">
         <v>45333</v>
@@ -26993,12 +27025,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:16">
+    <row r="467" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>481</v>
       </c>
       <c r="B467">
-        <v>25897.9875</v>
+        <v>25897.987499999999</v>
       </c>
       <c r="C467" s="2">
         <v>45303</v>
@@ -27043,12 +27075,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:16">
+    <row r="468" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>482</v>
       </c>
       <c r="B468">
-        <v>5306.2065</v>
+        <v>5306.2065000000002</v>
       </c>
       <c r="C468" s="2">
         <v>45357</v>
@@ -27093,12 +27125,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:16">
+    <row r="469" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>483</v>
       </c>
       <c r="B469">
-        <v>39690.168</v>
+        <v>39690.167999999998</v>
       </c>
       <c r="C469" s="2">
         <v>45382</v>
@@ -27107,7 +27139,7 @@
         <v>1025</v>
       </c>
       <c r="E469">
-        <v>37800.16</v>
+        <v>37800.160000000003</v>
       </c>
       <c r="F469" s="2">
         <v>45378</v>
@@ -27143,12 +27175,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:16">
+    <row r="470" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>484</v>
       </c>
       <c r="B470">
-        <v>35185.9724999999</v>
+        <v>35185.972499999902</v>
       </c>
       <c r="C470" s="2">
         <v>45342</v>
@@ -27157,7 +27189,7 @@
         <v>1026</v>
       </c>
       <c r="E470">
-        <v>33510.45</v>
+        <v>33510.449999999997</v>
       </c>
       <c r="F470" s="2">
         <v>45338</v>
@@ -27193,7 +27225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:16">
+    <row r="471" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>485</v>
       </c>
@@ -27207,7 +27239,7 @@
         <v>1027</v>
       </c>
       <c r="E471">
-        <v>32912.8</v>
+        <v>32912.800000000003</v>
       </c>
       <c r="F471" s="2">
         <v>45364</v>
@@ -27243,12 +27275,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:16">
+    <row r="472" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>486</v>
       </c>
       <c r="B472">
-        <v>24059.8785</v>
+        <v>24059.878499999999</v>
       </c>
       <c r="C472" s="2">
         <v>45317</v>
@@ -27293,12 +27325,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:16">
+    <row r="473" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>487</v>
       </c>
       <c r="B473">
-        <v>22001.5215</v>
+        <v>22001.521499999999</v>
       </c>
       <c r="C473" s="2">
         <v>45368</v>
@@ -27307,7 +27339,7 @@
         <v>1029</v>
       </c>
       <c r="E473">
-        <v>20953.83</v>
+        <v>20953.830000000002</v>
       </c>
       <c r="F473" s="2">
         <v>45364</v>
@@ -27343,12 +27375,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:16">
+    <row r="474" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>488</v>
       </c>
       <c r="B474">
-        <v>22112.202</v>
+        <v>22112.202000000001</v>
       </c>
       <c r="C474" s="2">
         <v>45317</v>
@@ -27393,7 +27425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:16">
+    <row r="475" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>489</v>
       </c>
@@ -27443,7 +27475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:16">
+    <row r="476" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>490</v>
       </c>
@@ -27493,7 +27525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:16">
+    <row r="477" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>491</v>
       </c>
@@ -27543,12 +27575,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:16">
+    <row r="478" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>492</v>
       </c>
       <c r="B478">
-        <v>17438.9775</v>
+        <v>17438.977500000001</v>
       </c>
       <c r="C478" s="2">
         <v>45359</v>
@@ -27593,12 +27625,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:16">
+    <row r="479" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>493</v>
       </c>
       <c r="B479">
-        <v>45353.28</v>
+        <v>45353.279999999999</v>
       </c>
       <c r="C479" s="2">
         <v>45356</v>
@@ -27607,7 +27639,7 @@
         <v>1035</v>
       </c>
       <c r="E479">
-        <v>43193.6</v>
+        <v>43193.599999999999</v>
       </c>
       <c r="F479" s="2">
         <v>45352</v>
@@ -27643,12 +27675,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:16">
+    <row r="480" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>494</v>
       </c>
       <c r="B480">
-        <v>46643.5935</v>
+        <v>46643.593500000003</v>
       </c>
       <c r="C480" s="2">
         <v>45350</v>
@@ -27693,7 +27725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:16">
+    <row r="481" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>495</v>
       </c>
@@ -27743,12 +27775,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:16">
+    <row r="482" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>496</v>
       </c>
       <c r="B482">
-        <v>9600.108</v>
+        <v>9600.1080000000002</v>
       </c>
       <c r="C482" s="2">
         <v>45378</v>
@@ -27757,7 +27789,7 @@
         <v>1038</v>
       </c>
       <c r="E482">
-        <v>9142.959999999999</v>
+        <v>9142.9599999999991</v>
       </c>
       <c r="F482" s="2">
         <v>45374</v>
@@ -27793,12 +27825,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:16">
+    <row r="483" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>497</v>
       </c>
       <c r="B483">
-        <v>41618.8815</v>
+        <v>41618.881500000003</v>
       </c>
       <c r="C483" s="2">
         <v>45369</v>
@@ -27843,12 +27875,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:16">
+    <row r="484" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>498</v>
       </c>
       <c r="B484">
-        <v>5019.693</v>
+        <v>5019.6930000000002</v>
       </c>
       <c r="C484" s="2">
         <v>45330</v>
@@ -27893,12 +27925,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:16">
+    <row r="485" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>499</v>
       </c>
       <c r="B485">
-        <v>39767.1959999999</v>
+        <v>39767.195999999902</v>
       </c>
       <c r="C485" s="2">
         <v>45356</v>
@@ -27907,7 +27939,7 @@
         <v>1041</v>
       </c>
       <c r="E485">
-        <v>37873.52</v>
+        <v>37873.519999999997</v>
       </c>
       <c r="F485" s="2">
         <v>45351</v>
@@ -27943,7 +27975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:16">
+    <row r="486" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>500</v>
       </c>
@@ -27993,12 +28025,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:16">
+    <row r="487" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>501</v>
       </c>
       <c r="B487">
-        <v>19313.637</v>
+        <v>19313.636999999999</v>
       </c>
       <c r="C487" s="2">
         <v>45301</v>
@@ -28007,7 +28039,7 @@
         <v>1043</v>
       </c>
       <c r="E487">
-        <v>18393.94</v>
+        <v>18393.939999999999</v>
       </c>
       <c r="F487" s="2">
         <v>45296</v>
@@ -28043,12 +28075,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:16">
+    <row r="488" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>502</v>
       </c>
       <c r="B488">
-        <v>49788.417</v>
+        <v>49788.417000000001</v>
       </c>
       <c r="C488" s="2">
         <v>45350</v>
@@ -28093,12 +28125,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:16">
+    <row r="489" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>503</v>
       </c>
       <c r="B489">
-        <v>45583.902</v>
+        <v>45583.902000000002</v>
       </c>
       <c r="C489" s="2">
         <v>45370</v>
@@ -28143,12 +28175,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:16">
+    <row r="490" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>504</v>
       </c>
       <c r="B490">
-        <v>40331.487</v>
+        <v>40331.487000000001</v>
       </c>
       <c r="C490" s="2">
         <v>45334</v>
@@ -28193,12 +28225,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:16">
+    <row r="491" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>505</v>
       </c>
       <c r="B491">
-        <v>39205.824</v>
+        <v>39205.824000000001</v>
       </c>
       <c r="C491" s="2">
         <v>45316</v>
@@ -28207,7 +28239,7 @@
         <v>1047</v>
       </c>
       <c r="E491">
-        <v>37338.88</v>
+        <v>37338.879999999997</v>
       </c>
       <c r="F491" s="2">
         <v>45311</v>
@@ -28243,12 +28275,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:16">
+    <row r="492" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>506</v>
       </c>
       <c r="B492">
-        <v>11083.254</v>
+        <v>11083.254000000001</v>
       </c>
       <c r="C492" s="2">
         <v>45370</v>
@@ -28293,12 +28325,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:16">
+    <row r="493" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>507</v>
       </c>
       <c r="B493">
-        <v>2858.919</v>
+        <v>2858.9189999999999</v>
       </c>
       <c r="C493" s="2">
         <v>45322</v>
@@ -28343,12 +28375,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:16">
+    <row r="494" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>508</v>
       </c>
       <c r="B494">
-        <v>20197.653</v>
+        <v>20197.652999999998</v>
       </c>
       <c r="C494" s="2">
         <v>45372</v>
@@ -28393,12 +28425,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:16">
+    <row r="495" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>509</v>
       </c>
       <c r="B495">
-        <v>34775.958</v>
+        <v>34775.957999999999</v>
       </c>
       <c r="C495" s="2">
         <v>45372</v>
@@ -28443,12 +28475,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:16">
+    <row r="496" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>510</v>
       </c>
       <c r="B496">
-        <v>48773.634</v>
+        <v>48773.633999999998</v>
       </c>
       <c r="C496" s="2">
         <v>45367</v>
@@ -28493,12 +28525,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:16">
+    <row r="497" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>511</v>
       </c>
       <c r="B497">
-        <v>49432.488</v>
+        <v>49432.487999999998</v>
       </c>
       <c r="C497" s="2">
         <v>45320</v>
@@ -28507,7 +28539,7 @@
         <v>1053</v>
       </c>
       <c r="E497">
-        <v>47078.56</v>
+        <v>47078.559999999998</v>
       </c>
       <c r="F497" s="2">
         <v>45315</v>
@@ -28543,7 +28575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:16">
+    <row r="498" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>512</v>
       </c>
@@ -28593,7 +28625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:16">
+    <row r="499" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>513</v>
       </c>
@@ -28607,7 +28639,7 @@
         <v>1055</v>
       </c>
       <c r="E499">
-        <v>10130.8</v>
+        <v>10130.799999999999</v>
       </c>
       <c r="F499" s="2">
         <v>45325</v>
@@ -28643,12 +28675,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:16">
+    <row r="500" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>514</v>
       </c>
       <c r="B500">
-        <v>21772.023</v>
+        <v>21772.023000000001</v>
       </c>
       <c r="C500" s="2">
         <v>45358</v>
@@ -28657,7 +28689,7 @@
         <v>1056</v>
       </c>
       <c r="E500">
-        <v>20735.26</v>
+        <v>20735.259999999998</v>
       </c>
       <c r="F500" s="2">
         <v>45353</v>
@@ -28693,12 +28725,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:16">
+    <row r="501" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>515</v>
       </c>
       <c r="B501">
-        <v>7090.776</v>
+        <v>7090.7759999999998</v>
       </c>
       <c r="C501" s="2">
         <v>45331</v>
@@ -28743,12 +28775,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:16">
+    <row r="502" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>516</v>
       </c>
       <c r="B502">
-        <v>45994.683</v>
+        <v>45994.682999999997</v>
       </c>
       <c r="C502" s="2">
         <v>45356</v>
@@ -28793,7 +28825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:16">
+    <row r="503" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>517</v>
       </c>
@@ -28843,12 +28875,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:16">
+    <row r="504" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>518</v>
       </c>
       <c r="B504">
-        <v>9595.057500000001</v>
+        <v>9595.0575000000008</v>
       </c>
       <c r="C504" s="2">
         <v>45359</v>
@@ -28893,12 +28925,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:16">
+    <row r="505" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>519</v>
       </c>
       <c r="B505">
-        <v>32736.7635</v>
+        <v>32736.763500000001</v>
       </c>
       <c r="C505" s="2">
         <v>45368</v>
@@ -28943,7 +28975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:16">
+    <row r="506" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>520</v>
       </c>
@@ -28993,12 +29025,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:16">
+    <row r="507" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>521</v>
       </c>
       <c r="B507">
-        <v>8507.173500000001</v>
+        <v>8507.1735000000008</v>
       </c>
       <c r="C507" s="2">
         <v>45298</v>
@@ -29043,7 +29075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:16">
+    <row r="508" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>522</v>
       </c>
@@ -29093,12 +29125,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:16">
+    <row r="509" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>523</v>
       </c>
       <c r="B509">
-        <v>37702.1504999999</v>
+        <v>37702.150499999902</v>
       </c>
       <c r="C509" s="2">
         <v>45303</v>
@@ -29143,12 +29175,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:16">
+    <row r="510" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>524</v>
       </c>
       <c r="B510">
-        <v>48375.5475</v>
+        <v>48375.547500000001</v>
       </c>
       <c r="C510" s="2">
         <v>45311</v>
@@ -29193,7 +29225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:16">
+    <row r="511" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>525</v>
       </c>
@@ -29243,7 +29275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:16">
+    <row r="512" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>526</v>
       </c>
@@ -29293,7 +29325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:16">
+    <row r="513" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>527</v>
       </c>
@@ -29307,7 +29339,7 @@
         <v>1069</v>
       </c>
       <c r="E513">
-        <v>2451.72</v>
+        <v>2451.7199999999998</v>
       </c>
       <c r="F513" s="2">
         <v>45368</v>
@@ -29343,12 +29375,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:16">
+    <row r="514" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>528</v>
       </c>
       <c r="B514">
-        <v>52034.6295</v>
+        <v>52034.629500000003</v>
       </c>
       <c r="C514" s="2">
         <v>45371</v>
@@ -29393,12 +29425,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:16">
+    <row r="515" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>529</v>
       </c>
       <c r="B515">
-        <v>44966.4915</v>
+        <v>44966.491499999996</v>
       </c>
       <c r="C515" s="2">
         <v>45342</v>
@@ -29443,12 +29475,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:16">
+    <row r="516" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>530</v>
       </c>
       <c r="B516">
-        <v>50690.7555</v>
+        <v>50690.755499999999</v>
       </c>
       <c r="C516" s="2">
         <v>45369</v>
@@ -29493,12 +29525,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:16">
+    <row r="517" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>531</v>
       </c>
       <c r="B517">
-        <v>46258.485</v>
+        <v>46258.485000000001</v>
       </c>
       <c r="C517" s="2">
         <v>45311</v>
@@ -29543,7 +29575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:16">
+    <row r="518" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>532</v>
       </c>
@@ -29593,7 +29625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:16">
+    <row r="519" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>533</v>
       </c>
@@ -29643,12 +29675,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:16">
+    <row r="520" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>534</v>
       </c>
       <c r="B520">
-        <v>8673.2415</v>
+        <v>8673.2415000000001</v>
       </c>
       <c r="C520" s="2">
         <v>45311</v>
@@ -29693,12 +29725,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:16">
+    <row r="521" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>535</v>
       </c>
       <c r="B521">
-        <v>50976.597</v>
+        <v>50976.597000000002</v>
       </c>
       <c r="C521" s="2">
         <v>45297</v>
@@ -29743,12 +29775,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:16">
+    <row r="522" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>536</v>
       </c>
       <c r="B522">
-        <v>6067.2885</v>
+        <v>6067.2884999999997</v>
       </c>
       <c r="C522" s="2">
         <v>45377</v>
@@ -29793,12 +29825,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:16">
+    <row r="523" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>537</v>
       </c>
       <c r="B523">
-        <v>30830.898</v>
+        <v>30830.898000000001</v>
       </c>
       <c r="C523" s="2">
         <v>45351</v>
@@ -29843,12 +29875,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:16">
+    <row r="524" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>538</v>
       </c>
       <c r="B524">
-        <v>44769.1545</v>
+        <v>44769.154499999997</v>
       </c>
       <c r="C524" s="2">
         <v>45362</v>
@@ -29893,12 +29925,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:16">
+    <row r="525" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>539</v>
       </c>
       <c r="B525">
-        <v>19820.7345</v>
+        <v>19820.734499999999</v>
       </c>
       <c r="C525" s="2">
         <v>45352</v>
@@ -29943,12 +29975,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:16">
+    <row r="526" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>540</v>
       </c>
       <c r="B526">
-        <v>24583.1985</v>
+        <v>24583.198499999999</v>
       </c>
       <c r="C526" s="2">
         <v>45314</v>
@@ -29993,7 +30025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:16">
+    <row r="527" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>541</v>
       </c>
@@ -30043,7 +30075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:16">
+    <row r="528" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>542</v>
       </c>
@@ -30093,12 +30125,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:16">
+    <row r="529" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>543</v>
       </c>
       <c r="B529">
-        <v>30797.6025</v>
+        <v>30797.602500000001</v>
       </c>
       <c r="C529" s="2">
         <v>45309</v>
@@ -30143,12 +30175,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:16">
+    <row r="530" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>544</v>
       </c>
       <c r="B530">
-        <v>44467.7205</v>
+        <v>44467.720500000003</v>
       </c>
       <c r="C530" s="2">
         <v>45352</v>
@@ -30193,12 +30225,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:16">
+    <row r="531" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>545</v>
       </c>
       <c r="B531">
-        <v>9223.1055</v>
+        <v>9223.1054999999997</v>
       </c>
       <c r="C531" s="2">
         <v>45301</v>
@@ -30243,12 +30275,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:16">
+    <row r="532" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>546</v>
       </c>
       <c r="B532">
-        <v>48671.259</v>
+        <v>48671.258999999998</v>
       </c>
       <c r="C532" s="2">
         <v>45341</v>
@@ -30293,12 +30325,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:16">
+    <row r="533" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>547</v>
       </c>
       <c r="B533">
-        <v>34791.9915</v>
+        <v>34791.991499999996</v>
       </c>
       <c r="C533" s="2">
         <v>45320</v>
@@ -30307,7 +30339,7 @@
         <v>1089</v>
       </c>
       <c r="E533">
-        <v>33135.23</v>
+        <v>33135.230000000003</v>
       </c>
       <c r="F533" s="2">
         <v>45315</v>
@@ -30343,12 +30375,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:16">
+    <row r="534" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>548</v>
       </c>
       <c r="B534">
-        <v>34733.37</v>
+        <v>34733.370000000003</v>
       </c>
       <c r="C534" s="2">
         <v>45380</v>
@@ -30393,7 +30425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:16">
+    <row r="535" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>549</v>
       </c>
@@ -30407,7 +30439,7 @@
         <v>1091</v>
       </c>
       <c r="E535">
-        <v>9946.799999999999</v>
+        <v>9946.7999999999993</v>
       </c>
       <c r="F535" s="2">
         <v>45300</v>
@@ -30443,12 +30475,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:16">
+    <row r="536" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>550</v>
       </c>
       <c r="B536">
-        <v>43970.5035</v>
+        <v>43970.503499999999</v>
       </c>
       <c r="C536" s="2">
         <v>45324</v>
@@ -30493,7 +30525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:16">
+    <row r="537" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>551</v>
       </c>
@@ -30543,12 +30575,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:16">
+    <row r="538" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>552</v>
       </c>
       <c r="B538">
-        <v>35963.907</v>
+        <v>35963.906999999999</v>
       </c>
       <c r="C538" s="2">
         <v>45299</v>
@@ -30557,7 +30589,7 @@
         <v>1094</v>
       </c>
       <c r="E538">
-        <v>34251.34</v>
+        <v>34251.339999999997</v>
       </c>
       <c r="F538" s="2">
         <v>45294</v>
@@ -30593,12 +30625,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:16">
+    <row r="539" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>553</v>
       </c>
       <c r="B539">
-        <v>51991.9364999999</v>
+        <v>51991.936499999902</v>
       </c>
       <c r="C539" s="2">
         <v>45316</v>
@@ -30643,12 +30675,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:16">
+    <row r="540" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>554</v>
       </c>
       <c r="B540">
-        <v>542.8395</v>
+        <v>542.83950000000004</v>
       </c>
       <c r="C540" s="2">
         <v>45325</v>
@@ -30693,12 +30725,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:16">
+    <row r="541" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>555</v>
       </c>
       <c r="B541">
-        <v>49570.5315</v>
+        <v>49570.531499999997</v>
       </c>
       <c r="C541" s="2">
         <v>45305</v>
@@ -30743,12 +30775,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:16">
+    <row r="542" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>556</v>
       </c>
       <c r="B542">
-        <v>39190.452</v>
+        <v>39190.451999999997</v>
       </c>
       <c r="C542" s="2">
         <v>45317</v>
@@ -30757,7 +30789,7 @@
         <v>1098</v>
       </c>
       <c r="E542">
-        <v>37324.24</v>
+        <v>37324.239999999998</v>
       </c>
       <c r="F542" s="2">
         <v>45312</v>
@@ -30793,7 +30825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:16">
+    <row r="543" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>557</v>
       </c>
@@ -30807,7 +30839,7 @@
         <v>1099</v>
       </c>
       <c r="E543">
-        <v>17614.42</v>
+        <v>17614.419999999998</v>
       </c>
       <c r="F543" s="2">
         <v>45304</v>
@@ -30844,6 +30876,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P543">
+    <filterColumn colId="15">
+      <filters>
+        <filter val="TRUE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>